--- a/chinalife/src/main/webapp/template/GongzidanTemplate.xlsx
+++ b/chinalife/src/main/webapp/template/GongzidanTemplate.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -209,6 +209,10 @@
   <si>
     <t>实发合计</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资单日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -218,7 +222,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -260,6 +264,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -299,7 +310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -336,6 +347,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -615,15 +632,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA1"/>
+  <dimension ref="A1:BA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AY18" sqref="AY18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="2" customWidth="1"/>
     <col min="2" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -670,154 +687,162 @@
     <col min="54" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+    </row>
+    <row r="3" spans="1:53" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AM3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AO3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AQ3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AS3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AT3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AU3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
